--- a/SystemList.xlsx
+++ b/SystemList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Desktop\MITRE\NLTK Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04BA915-F6F2-4298-9A7F-9F34923BBED7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE45640A-944B-4DF3-AD19-B0BDF2DD2742}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{39D30E7D-5D62-4050-AF7B-14405E14E2D2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="385">
   <si>
     <t>Final Mapped System</t>
   </si>
@@ -1007,36 +1007,6 @@
     <t>docspec</t>
   </si>
   <si>
-    <t>dependent database</t>
-  </si>
-  <si>
-    <t>contact recording</t>
-  </si>
-  <si>
-    <t>contact record</t>
-  </si>
-  <si>
-    <t>trust fund</t>
-  </si>
-  <si>
-    <t>masterfile reports</t>
-  </si>
-  <si>
-    <t>mod iein</t>
-  </si>
-  <si>
-    <t>notice convention</t>
-  </si>
-  <si>
-    <t>return review</t>
-  </si>
-  <si>
-    <t>unpaid assessments</t>
-  </si>
-  <si>
-    <t>web apps</t>
-  </si>
-  <si>
     <t xml:space="preserve">fol </t>
   </si>
   <si>
@@ -1056,6 +1026,168 @@
   </si>
   <si>
     <t xml:space="preserve">mf </t>
+  </si>
+  <si>
+    <t>PDCA</t>
+  </si>
+  <si>
+    <t>ECMS</t>
+  </si>
+  <si>
+    <t>SMART</t>
+  </si>
+  <si>
+    <t>VMWARE</t>
+  </si>
+  <si>
+    <t>Oracle Database Services</t>
+  </si>
+  <si>
+    <t>SABA</t>
+  </si>
+  <si>
+    <t>Phone Systems</t>
+  </si>
+  <si>
+    <t>SPECTRM</t>
+  </si>
+  <si>
+    <t>Phone Services</t>
+  </si>
+  <si>
+    <t>ARCHER</t>
+  </si>
+  <si>
+    <t>PATCHING</t>
+  </si>
+  <si>
+    <t>CMS</t>
+  </si>
+  <si>
+    <t>AXWAY</t>
+  </si>
+  <si>
+    <t>EPACS</t>
+  </si>
+  <si>
+    <t>LAND</t>
+  </si>
+  <si>
+    <t>PCS</t>
+  </si>
+  <si>
+    <t>My Devices</t>
+  </si>
+  <si>
+    <t>CDE</t>
+  </si>
+  <si>
+    <t>RTR</t>
+  </si>
+  <si>
+    <t>SRS</t>
+  </si>
+  <si>
+    <t>TCCS</t>
+  </si>
+  <si>
+    <t>COTS</t>
+  </si>
+  <si>
+    <t>MIN WAV</t>
+  </si>
+  <si>
+    <t>TEDS</t>
+  </si>
+  <si>
+    <t>EWFM</t>
+  </si>
+  <si>
+    <t>IAT</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>SEMS</t>
+  </si>
+  <si>
+    <t>DCS-2</t>
+  </si>
+  <si>
+    <t>AEF</t>
+  </si>
+  <si>
+    <t>GSS</t>
+  </si>
+  <si>
+    <t>ACPL</t>
+  </si>
+  <si>
+    <t>OL5081</t>
+  </si>
+  <si>
+    <t>MEDS</t>
+  </si>
+  <si>
+    <t>Printing</t>
+  </si>
+  <si>
+    <t>FUTA</t>
+  </si>
+  <si>
+    <t>ALS</t>
+  </si>
+  <si>
+    <t>CBS-FSIG</t>
+  </si>
+  <si>
+    <t>ESS</t>
+  </si>
+  <si>
+    <t>AFOIA</t>
+  </si>
+  <si>
+    <t>MIDDLEWARE</t>
+  </si>
+  <si>
+    <t>HRRC</t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>Virtualization Services</t>
+  </si>
+  <si>
+    <t>DOCIT</t>
+  </si>
+  <si>
+    <t>CASE</t>
+  </si>
+  <si>
+    <t>ERCS</t>
+  </si>
+  <si>
+    <t>HRCON</t>
+  </si>
+  <si>
+    <t>SSA-RRB-1099</t>
+  </si>
+  <si>
+    <t>INTLWebApps</t>
+  </si>
+  <si>
+    <t>E-TRAK</t>
+  </si>
+  <si>
+    <t>ELITE</t>
+  </si>
+  <si>
+    <t>MOD EIN</t>
+  </si>
+  <si>
+    <t>Notice Convention</t>
   </si>
 </sst>
 </file>
@@ -1111,13 +1243,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1435,7 +1569,7 @@
   <dimension ref="D1:W186"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Z16" sqref="Z16"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1475,10 +1609,10 @@
         <v>322</v>
       </c>
       <c r="V1" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="W1" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2" spans="4:23" x14ac:dyDescent="0.25">
@@ -1511,7 +1645,7 @@
         <v>22</v>
       </c>
       <c r="T2" t="s">
-        <v>327</v>
+        <v>167</v>
       </c>
       <c r="U2" t="s">
         <v>16</v>
@@ -1546,7 +1680,7 @@
         <v>22</v>
       </c>
       <c r="T3" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="U3" t="s">
         <v>34</v>
@@ -1587,7 +1721,7 @@
         <v>28</v>
       </c>
       <c r="T4" t="s">
-        <v>324</v>
+        <v>198</v>
       </c>
       <c r="U4" t="s">
         <v>38</v>
@@ -1619,7 +1753,7 @@
         <v>28</v>
       </c>
       <c r="T5" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="U5" t="s">
         <v>60</v>
@@ -1657,7 +1791,7 @@
         <v>28</v>
       </c>
       <c r="T6" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="U6" t="s">
         <v>60</v>
@@ -1692,7 +1826,7 @@
         <v>42</v>
       </c>
       <c r="T7" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="U7" t="s">
         <v>61</v>
@@ -1724,7 +1858,7 @@
         <v>59</v>
       </c>
       <c r="T8" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="U8" t="s">
         <v>78</v>
@@ -1759,7 +1893,7 @@
         <v>104</v>
       </c>
       <c r="T9" t="s">
-        <v>328</v>
+        <v>242</v>
       </c>
       <c r="U9" t="s">
         <v>79</v>
@@ -1788,7 +1922,7 @@
         <v>132</v>
       </c>
       <c r="T10" t="s">
-        <v>329</v>
+        <v>383</v>
       </c>
       <c r="U10" t="s">
         <v>103</v>
@@ -1817,7 +1951,7 @@
         <v>107</v>
       </c>
       <c r="T11" t="s">
-        <v>330</v>
+        <v>384</v>
       </c>
       <c r="U11" s="3" t="s">
         <v>108</v>
@@ -1852,7 +1986,7 @@
         <v>134</v>
       </c>
       <c r="T12" t="s">
-        <v>331</v>
+        <v>295</v>
       </c>
       <c r="U12" t="s">
         <v>125</v>
@@ -1884,7 +2018,7 @@
         <v>41</v>
       </c>
       <c r="T13" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="U13" t="s">
         <v>140</v>
@@ -1906,8 +2040,14 @@
       <c r="Q14" t="s">
         <v>9</v>
       </c>
+      <c r="R14" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="S14" s="7" t="s">
+        <v>331</v>
+      </c>
       <c r="T14" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
       <c r="U14" t="s">
         <v>144</v>
@@ -1929,8 +2069,14 @@
       <c r="Q15" t="s">
         <v>10</v>
       </c>
+      <c r="R15" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="S15" s="7" t="s">
+        <v>332</v>
+      </c>
       <c r="T15" t="s">
-        <v>326</v>
+        <v>193</v>
       </c>
       <c r="U15" t="s">
         <v>35</v>
@@ -1952,14 +2098,20 @@
       <c r="Q16" t="s">
         <v>11</v>
       </c>
+      <c r="R16" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="S16" s="7" t="s">
+        <v>333</v>
+      </c>
       <c r="T16" t="s">
-        <v>325</v>
+        <v>194</v>
       </c>
       <c r="U16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>16</v>
       </c>
@@ -1978,8 +2130,20 @@
       <c r="Q17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="R17" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="S17" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="T17" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="U17" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="18" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>17</v>
       </c>
@@ -2001,8 +2165,20 @@
       <c r="Q18" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="R18" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="S18" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="T18" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="U18" s="7" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="19" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>18</v>
       </c>
@@ -2024,8 +2200,20 @@
       <c r="Q19" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="R19" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="S19" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="T19" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="U19" s="7" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="20" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>19</v>
       </c>
@@ -2044,8 +2232,20 @@
       <c r="Q20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="R20" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="S20" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="T20" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="U20" s="7" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="21" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>20</v>
       </c>
@@ -2055,8 +2255,20 @@
       <c r="Q21" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="R21" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="S21" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="T21" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="U21" s="7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="22" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>21</v>
       </c>
@@ -2066,8 +2278,20 @@
       <c r="Q22" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="R22" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="S22" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="T22" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="U22" s="7" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="23" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>22</v>
       </c>
@@ -2083,8 +2307,14 @@
       <c r="Q23" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="R23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="S23" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>23</v>
       </c>
@@ -2100,8 +2330,14 @@
       <c r="Q24" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="R24" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="S24" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="25" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>24</v>
       </c>
@@ -2117,8 +2353,14 @@
       <c r="Q25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="R25" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="S25" s="7" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="26" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>25</v>
       </c>
@@ -2137,8 +2379,14 @@
       <c r="Q26" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="R26" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="S26" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="27" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>26</v>
       </c>
@@ -2148,8 +2396,14 @@
       <c r="Q27" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="28" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="R27" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="S27" s="7" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="28" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>27</v>
       </c>
@@ -2159,8 +2413,14 @@
       <c r="Q28" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="R28" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="S28" s="7" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="29" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>28</v>
       </c>
@@ -2182,8 +2442,14 @@
       <c r="Q29" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="R29" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="S29" s="7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="30" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>29</v>
       </c>
@@ -2196,8 +2462,14 @@
       <c r="Q30" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="31" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="R30" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="S30" s="7" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="31" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>30</v>
       </c>
@@ -2207,8 +2479,14 @@
       <c r="Q31" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="32" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="R31" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="S31" s="7" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="32" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>31</v>
       </c>
@@ -2218,8 +2496,14 @@
       <c r="Q32" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="33" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="R32" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="S32" s="7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="33" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>32</v>
       </c>
@@ -2238,8 +2522,14 @@
       <c r="Q33" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="34" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="R33" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="S33" s="7" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="34" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>33</v>
       </c>
@@ -2249,8 +2539,14 @@
       <c r="Q34" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="35" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="R34" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="S34" s="7" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="35" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>34</v>
       </c>
@@ -2284,8 +2580,14 @@
       <c r="Q35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="R35" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="S35" s="7" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="36" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>35</v>
       </c>
@@ -2301,8 +2603,14 @@
       <c r="Q36" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="R36" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="S36" s="7" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="37" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>36</v>
       </c>
@@ -2315,8 +2623,14 @@
       <c r="Q37" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="38" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="R37" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="S37" s="7" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="38" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>37</v>
       </c>
@@ -2326,8 +2640,14 @@
       <c r="Q38" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="39" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="R38" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="S38" s="7" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="39" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
         <v>38</v>
       </c>
@@ -2346,8 +2666,14 @@
       <c r="Q39" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="40" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="R39" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="S39" s="7" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="40" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>39</v>
       </c>
@@ -2357,8 +2683,14 @@
       <c r="Q40" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="41" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="R40" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="S40" s="7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="41" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>40</v>
       </c>
@@ -2371,8 +2703,14 @@
       <c r="Q41" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="42" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="R41" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="S41" s="7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="42" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>41</v>
       </c>
@@ -2391,8 +2729,14 @@
       <c r="Q42" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="43" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="R42" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="S42" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
         <v>42</v>
       </c>
@@ -2405,8 +2749,14 @@
       <c r="Q43" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="44" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="R43" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="S43" s="7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="44" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
         <v>43</v>
       </c>
@@ -2422,8 +2772,14 @@
       <c r="Q44" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="45" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="R44" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="S44" s="7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="45" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D45" s="3" t="s">
         <v>201</v>
       </c>
@@ -2433,8 +2789,14 @@
       <c r="Q45" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="46" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="R45" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="S45" s="7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="46" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
         <v>44</v>
       </c>
@@ -2444,8 +2806,14 @@
       <c r="Q46" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="47" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="R46" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="S46" s="7" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="47" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
         <v>45</v>
       </c>
@@ -2455,8 +2823,14 @@
       <c r="Q47" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="48" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="R47" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="S47" s="7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="48" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
         <v>46</v>
       </c>
@@ -2469,8 +2843,14 @@
       <c r="Q48" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="49" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="R48" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="S48" s="7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="49" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
         <v>47</v>
       </c>
@@ -2483,8 +2863,14 @@
       <c r="Q49" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="50" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="R49" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="S49" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="50" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
         <v>48</v>
       </c>
@@ -2497,8 +2883,14 @@
       <c r="Q50" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="51" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="R50" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="S50" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="51" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
         <v>49</v>
       </c>
@@ -2508,8 +2900,14 @@
       <c r="Q51" s="3" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="52" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="R51" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="S51" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="52" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
         <v>50</v>
       </c>
@@ -2519,8 +2917,14 @@
       <c r="Q52" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="53" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="R52" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="S52" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="53" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
         <v>51</v>
       </c>
@@ -2530,8 +2934,14 @@
       <c r="Q53" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="54" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="R53" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="S53" s="7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="54" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
         <v>52</v>
       </c>
@@ -2547,8 +2957,14 @@
       <c r="Q54" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="55" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="R54" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="S54" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="55" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
         <v>53</v>
       </c>
@@ -2561,8 +2977,14 @@
       <c r="Q55" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="56" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="R55" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="S55" s="7" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="56" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
         <v>54</v>
       </c>
@@ -2572,8 +2994,14 @@
       <c r="Q56" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="57" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="R56" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="S56" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="57" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D57" s="3" t="s">
         <v>55</v>
       </c>
@@ -2586,8 +3014,14 @@
       <c r="Q57" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="58" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="R57" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="S57" s="7" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="58" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
         <v>56</v>
       </c>
@@ -2618,8 +3052,14 @@
       <c r="Q58" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="59" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="R58" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="S58" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="59" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
         <v>57</v>
       </c>
@@ -2638,8 +3078,14 @@
       <c r="Q59" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="60" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="R59" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="S59" s="7" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="60" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
         <v>58</v>
       </c>
@@ -2649,8 +3095,14 @@
       <c r="Q60" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="61" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="R60" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="S60" s="7" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="61" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
         <v>59</v>
       </c>
@@ -2663,8 +3115,14 @@
       <c r="Q61" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="62" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="R61" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="S61" s="7" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="62" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
         <v>60</v>
       </c>
@@ -2683,8 +3141,14 @@
       <c r="Q62" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="63" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="R62" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="S62" s="7" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="63" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
         <v>61</v>
       </c>
@@ -2701,7 +3165,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="64" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
         <v>62</v>
       </c>

--- a/SystemList.xlsx
+++ b/SystemList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Desktop\MITRE\NLTK Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE45640A-944B-4DF3-AD19-B0BDF2DD2742}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C49F337-184F-4D5A-8A30-6EDFA7B2989A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{39D30E7D-5D62-4050-AF7B-14405E14E2D2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="401">
   <si>
     <t>Final Mapped System</t>
   </si>
@@ -1058,12 +1058,6 @@
     <t>ARCHER</t>
   </si>
   <si>
-    <t>PATCHING</t>
-  </si>
-  <si>
-    <t>CMS</t>
-  </si>
-  <si>
     <t>AXWAY</t>
   </si>
   <si>
@@ -1091,9 +1085,6 @@
     <t>TCCS</t>
   </si>
   <si>
-    <t>COTS</t>
-  </si>
-  <si>
     <t>MIN WAV</t>
   </si>
   <si>
@@ -1148,9 +1139,6 @@
     <t>AFOIA</t>
   </si>
   <si>
-    <t>MIDDLEWARE</t>
-  </si>
-  <si>
     <t>HRRC</t>
   </si>
   <si>
@@ -1188,6 +1176,66 @@
   </si>
   <si>
     <t>Notice Convention</t>
+  </si>
+  <si>
+    <t>ATT</t>
+  </si>
+  <si>
+    <t>AT&amp;T</t>
+  </si>
+  <si>
+    <t>Telecom</t>
+  </si>
+  <si>
+    <t>I460</t>
+  </si>
+  <si>
+    <t>LOOB</t>
+  </si>
+  <si>
+    <t>Minister</t>
+  </si>
+  <si>
+    <t>ODS</t>
+  </si>
+  <si>
+    <t>UCMDB</t>
+  </si>
+  <si>
+    <t>VELOCITY</t>
+  </si>
+  <si>
+    <t>DU</t>
+  </si>
+  <si>
+    <t>DIGITRAK</t>
+  </si>
+  <si>
+    <t>DIGI*TRAK</t>
+  </si>
+  <si>
+    <t>DIGI TRAK</t>
+  </si>
+  <si>
+    <t>MINISTER11G</t>
+  </si>
+  <si>
+    <t>virtualization services</t>
+  </si>
+  <si>
+    <t>OLACCOUNT</t>
+  </si>
+  <si>
+    <t>I440</t>
+  </si>
+  <si>
+    <t>I480</t>
+  </si>
+  <si>
+    <t>I78</t>
+  </si>
+  <si>
+    <t>daily processing</t>
   </si>
 </sst>
 </file>
@@ -1566,10 +1614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE95750E-80EC-4200-A435-5C9AC23FAF1E}">
-  <dimension ref="D1:W186"/>
+  <dimension ref="D1:W188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="AB28" sqref="AB28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1922,7 +1970,7 @@
         <v>132</v>
       </c>
       <c r="T10" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="U10" t="s">
         <v>103</v>
@@ -1951,7 +1999,7 @@
         <v>107</v>
       </c>
       <c r="T11" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="U11" s="3" t="s">
         <v>108</v>
@@ -2134,7 +2182,7 @@
         <v>334</v>
       </c>
       <c r="S17" s="7" t="s">
-        <v>334</v>
+        <v>395</v>
       </c>
       <c r="T17" s="7" t="s">
         <v>335</v>
@@ -2220,12 +2268,6 @@
       <c r="E20" t="s">
         <v>171</v>
       </c>
-      <c r="N20" t="s">
-        <v>279</v>
-      </c>
-      <c r="O20" t="s">
-        <v>116</v>
-      </c>
       <c r="P20" t="s">
         <v>19</v>
       </c>
@@ -2239,10 +2281,10 @@
         <v>340</v>
       </c>
       <c r="T20" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="U20" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="21" spans="4:21" x14ac:dyDescent="0.25">
@@ -2256,16 +2298,16 @@
         <v>13</v>
       </c>
       <c r="R21" s="6" t="s">
-        <v>341</v>
+        <v>390</v>
       </c>
       <c r="S21" s="7" t="s">
-        <v>341</v>
+        <v>28</v>
       </c>
       <c r="T21" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="U21" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="22" spans="4:21" x14ac:dyDescent="0.25">
@@ -2278,17 +2320,17 @@
       <c r="Q22" t="s">
         <v>19</v>
       </c>
-      <c r="R22" s="6" t="s">
-        <v>342</v>
+      <c r="R22" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="S22" s="7" t="s">
-        <v>342</v>
+        <v>29</v>
       </c>
       <c r="T22" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="U22" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" spans="4:21" x14ac:dyDescent="0.25">
@@ -2307,11 +2349,17 @@
       <c r="Q23" t="s">
         <v>20</v>
       </c>
-      <c r="R23" s="6" t="s">
-        <v>29</v>
+      <c r="R23" s="7" t="s">
+        <v>341</v>
       </c>
       <c r="S23" s="7" t="s">
-        <v>29</v>
+        <v>341</v>
+      </c>
+      <c r="T23" t="s">
+        <v>393</v>
+      </c>
+      <c r="U23" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="24" spans="4:21" x14ac:dyDescent="0.25">
@@ -2330,11 +2378,17 @@
       <c r="Q24" t="s">
         <v>21</v>
       </c>
-      <c r="R24" s="6" t="s">
+      <c r="R24" s="7" t="s">
         <v>343</v>
       </c>
       <c r="S24" s="7" t="s">
         <v>343</v>
+      </c>
+      <c r="T24" t="s">
+        <v>397</v>
+      </c>
+      <c r="U24" s="7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="4:21" x14ac:dyDescent="0.25">
@@ -2353,11 +2407,17 @@
       <c r="Q25" t="s">
         <v>23</v>
       </c>
-      <c r="R25" s="6" t="s">
+      <c r="R25" s="7" t="s">
         <v>344</v>
       </c>
       <c r="S25" s="7" t="s">
         <v>344</v>
+      </c>
+      <c r="T25" t="s">
+        <v>384</v>
+      </c>
+      <c r="U25" s="7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="4:21" x14ac:dyDescent="0.25">
@@ -2374,16 +2434,22 @@
         <v>178</v>
       </c>
       <c r="P26" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q26" t="s">
         <v>23</v>
       </c>
-      <c r="R26" s="6" t="s">
-        <v>345</v>
+      <c r="R26" s="7" t="s">
+        <v>346</v>
       </c>
       <c r="S26" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
+      </c>
+      <c r="T26" t="s">
+        <v>398</v>
+      </c>
+      <c r="U26" s="7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="4:21" x14ac:dyDescent="0.25">
@@ -2391,16 +2457,22 @@
         <v>26</v>
       </c>
       <c r="P27" t="s">
-        <v>176</v>
+        <v>24</v>
       </c>
       <c r="Q27" t="s">
-        <v>23</v>
-      </c>
-      <c r="R27" s="6" t="s">
-        <v>346</v>
+        <v>24</v>
+      </c>
+      <c r="R27" s="7" t="s">
+        <v>347</v>
       </c>
       <c r="S27" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
+      </c>
+      <c r="T27" t="s">
+        <v>399</v>
+      </c>
+      <c r="U27" s="7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="4:21" x14ac:dyDescent="0.25">
@@ -2408,16 +2480,22 @@
         <v>27</v>
       </c>
       <c r="P28" t="s">
-        <v>24</v>
+        <v>177</v>
       </c>
       <c r="Q28" t="s">
         <v>24</v>
       </c>
-      <c r="R28" s="6" t="s">
+      <c r="R28" s="7" t="s">
         <v>348</v>
       </c>
       <c r="S28" s="7" t="s">
         <v>348</v>
+      </c>
+      <c r="T28" t="s">
+        <v>400</v>
+      </c>
+      <c r="U28" s="7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="4:21" x14ac:dyDescent="0.25">
@@ -2437,12 +2515,12 @@
         <v>181</v>
       </c>
       <c r="P29" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="Q29" t="s">
         <v>24</v>
       </c>
-      <c r="R29" s="6" t="s">
+      <c r="R29" s="7" t="s">
         <v>349</v>
       </c>
       <c r="S29" s="7" t="s">
@@ -2457,16 +2535,16 @@
         <v>183</v>
       </c>
       <c r="P30" t="s">
-        <v>172</v>
+        <v>25</v>
       </c>
       <c r="Q30" t="s">
-        <v>24</v>
-      </c>
-      <c r="R30" s="6" t="s">
-        <v>350</v>
+        <v>25</v>
+      </c>
+      <c r="R30" s="7" t="s">
+        <v>387</v>
       </c>
       <c r="S30" s="7" t="s">
-        <v>350</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="4:21" x14ac:dyDescent="0.25">
@@ -2474,16 +2552,16 @@
         <v>30</v>
       </c>
       <c r="P31" t="s">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="Q31" t="s">
         <v>25</v>
       </c>
-      <c r="R31" s="6" t="s">
+      <c r="R31" s="7" t="s">
         <v>351</v>
       </c>
       <c r="S31" s="7" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
     </row>
     <row r="32" spans="4:21" x14ac:dyDescent="0.25">
@@ -2491,12 +2569,12 @@
         <v>31</v>
       </c>
       <c r="P32" t="s">
-        <v>178</v>
+        <v>26</v>
       </c>
       <c r="Q32" t="s">
-        <v>25</v>
-      </c>
-      <c r="R32" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R32" s="7" t="s">
         <v>352</v>
       </c>
       <c r="S32" s="7" t="s">
@@ -2517,16 +2595,16 @@
         <v>184</v>
       </c>
       <c r="P33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q33" t="s">
-        <v>26</v>
-      </c>
-      <c r="R33" s="6" t="s">
-        <v>354</v>
+        <v>27</v>
+      </c>
+      <c r="R33" s="7" t="s">
+        <v>353</v>
       </c>
       <c r="S33" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="34" spans="4:19" x14ac:dyDescent="0.25">
@@ -2534,16 +2612,16 @@
         <v>33</v>
       </c>
       <c r="P34" t="s">
-        <v>27</v>
+        <v>191</v>
       </c>
       <c r="Q34" t="s">
-        <v>27</v>
-      </c>
-      <c r="R34" s="6" t="s">
-        <v>355</v>
+        <v>34</v>
+      </c>
+      <c r="R34" s="7" t="s">
+        <v>354</v>
       </c>
       <c r="S34" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="35" spans="4:19" x14ac:dyDescent="0.25">
@@ -2575,16 +2653,16 @@
         <v>192</v>
       </c>
       <c r="P35" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q35" t="s">
         <v>34</v>
       </c>
-      <c r="R35" s="6" t="s">
-        <v>356</v>
+      <c r="R35" s="7" t="s">
+        <v>355</v>
       </c>
       <c r="S35" s="7" t="s">
-        <v>356</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="4:19" x14ac:dyDescent="0.25">
@@ -2598,16 +2676,16 @@
         <v>194</v>
       </c>
       <c r="P36" t="s">
-        <v>192</v>
+        <v>29</v>
       </c>
       <c r="Q36" t="s">
-        <v>34</v>
-      </c>
-      <c r="R36" s="6" t="s">
-        <v>357</v>
+        <v>29</v>
+      </c>
+      <c r="R36" s="7" t="s">
+        <v>356</v>
       </c>
       <c r="S36" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="37" spans="4:19" x14ac:dyDescent="0.25">
@@ -2618,16 +2696,16 @@
         <v>195</v>
       </c>
       <c r="P37" t="s">
-        <v>29</v>
+        <v>183</v>
       </c>
       <c r="Q37" t="s">
         <v>29</v>
       </c>
-      <c r="R37" s="6" t="s">
-        <v>358</v>
+      <c r="R37" s="7" t="s">
+        <v>357</v>
       </c>
       <c r="S37" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="38" spans="4:19" x14ac:dyDescent="0.25">
@@ -2635,16 +2713,16 @@
         <v>37</v>
       </c>
       <c r="P38" t="s">
-        <v>183</v>
+        <v>30</v>
       </c>
       <c r="Q38" t="s">
-        <v>29</v>
-      </c>
-      <c r="R38" s="6" t="s">
-        <v>359</v>
+        <v>30</v>
+      </c>
+      <c r="R38" s="7" t="s">
+        <v>358</v>
       </c>
       <c r="S38" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="39" spans="4:19" x14ac:dyDescent="0.25">
@@ -2661,16 +2739,16 @@
         <v>198</v>
       </c>
       <c r="P39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q39" t="s">
-        <v>30</v>
-      </c>
-      <c r="R39" s="6" t="s">
-        <v>360</v>
+        <v>31</v>
+      </c>
+      <c r="R39" s="7" t="s">
+        <v>359</v>
       </c>
       <c r="S39" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="40" spans="4:19" x14ac:dyDescent="0.25">
@@ -2678,16 +2756,16 @@
         <v>39</v>
       </c>
       <c r="P40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q40" t="s">
-        <v>31</v>
-      </c>
-      <c r="R40" s="6" t="s">
-        <v>361</v>
+        <v>32</v>
+      </c>
+      <c r="R40" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="S40" s="7" t="s">
-        <v>361</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="4:19" x14ac:dyDescent="0.25">
@@ -2698,16 +2776,16 @@
         <v>170</v>
       </c>
       <c r="P41" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Q41" t="s">
-        <v>32</v>
-      </c>
-      <c r="R41" s="6" t="s">
-        <v>362</v>
+        <v>36</v>
+      </c>
+      <c r="R41" s="7" t="s">
+        <v>360</v>
       </c>
       <c r="S41" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="42" spans="4:19" x14ac:dyDescent="0.25">
@@ -2724,16 +2802,16 @@
         <v>202</v>
       </c>
       <c r="P42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q42" t="s">
-        <v>36</v>
-      </c>
-      <c r="R42" s="6" t="s">
-        <v>20</v>
+        <v>37</v>
+      </c>
+      <c r="R42" s="7" t="s">
+        <v>361</v>
       </c>
       <c r="S42" s="7" t="s">
-        <v>20</v>
+        <v>361</v>
       </c>
     </row>
     <row r="43" spans="4:19" x14ac:dyDescent="0.25">
@@ -2744,16 +2822,16 @@
         <v>203</v>
       </c>
       <c r="P43" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q43" t="s">
-        <v>37</v>
-      </c>
-      <c r="R43" s="6" t="s">
-        <v>363</v>
+        <v>38</v>
+      </c>
+      <c r="R43" s="7" t="s">
+        <v>362</v>
       </c>
       <c r="S43" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="44" spans="4:19" x14ac:dyDescent="0.25">
@@ -2767,16 +2845,16 @@
         <v>205</v>
       </c>
       <c r="P44" t="s">
-        <v>38</v>
+        <v>196</v>
       </c>
       <c r="Q44" t="s">
         <v>38</v>
       </c>
-      <c r="R44" s="6" t="s">
-        <v>364</v>
+      <c r="R44" s="7" t="s">
+        <v>363</v>
       </c>
       <c r="S44" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="45" spans="4:19" x14ac:dyDescent="0.25">
@@ -2784,16 +2862,16 @@
         <v>201</v>
       </c>
       <c r="P45" t="s">
-        <v>196</v>
+        <v>39</v>
       </c>
       <c r="Q45" t="s">
-        <v>38</v>
-      </c>
-      <c r="R45" s="6" t="s">
-        <v>365</v>
+        <v>39</v>
+      </c>
+      <c r="R45" s="7" t="s">
+        <v>364</v>
       </c>
       <c r="S45" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="46" spans="4:19" x14ac:dyDescent="0.25">
@@ -2801,16 +2879,16 @@
         <v>44</v>
       </c>
       <c r="P46" t="s">
-        <v>39</v>
+        <v>200</v>
       </c>
       <c r="Q46" t="s">
-        <v>39</v>
-      </c>
-      <c r="R46" s="6" t="s">
-        <v>366</v>
+        <v>41</v>
+      </c>
+      <c r="R46" s="7" t="s">
+        <v>365</v>
       </c>
       <c r="S46" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="47" spans="4:19" x14ac:dyDescent="0.25">
@@ -2818,16 +2896,16 @@
         <v>45</v>
       </c>
       <c r="P47" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q47" t="s">
         <v>41</v>
       </c>
-      <c r="R47" s="6" t="s">
-        <v>367</v>
+      <c r="R47" s="7" t="s">
+        <v>366</v>
       </c>
       <c r="S47" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="48" spans="4:19" x14ac:dyDescent="0.25">
@@ -2838,16 +2916,16 @@
         <v>206</v>
       </c>
       <c r="P48" t="s">
-        <v>202</v>
+        <v>43</v>
       </c>
       <c r="Q48" t="s">
-        <v>41</v>
-      </c>
-      <c r="R48" s="6" t="s">
-        <v>368</v>
+        <v>43</v>
+      </c>
+      <c r="R48" s="7" t="s">
+        <v>367</v>
       </c>
       <c r="S48" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="49" spans="4:19" x14ac:dyDescent="0.25">
@@ -2858,16 +2936,16 @@
         <v>207</v>
       </c>
       <c r="P49" t="s">
-        <v>43</v>
+        <v>204</v>
       </c>
       <c r="Q49" t="s">
         <v>43</v>
       </c>
-      <c r="R49" s="6" t="s">
-        <v>369</v>
+      <c r="R49" s="7" t="s">
+        <v>118</v>
       </c>
       <c r="S49" s="7" t="s">
-        <v>369</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="4:19" x14ac:dyDescent="0.25">
@@ -2877,34 +2955,34 @@
       <c r="E50" t="s">
         <v>208</v>
       </c>
-      <c r="P50" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>43</v>
-      </c>
-      <c r="R50" s="6" t="s">
-        <v>370</v>
+      <c r="P50" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q50" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="R50" s="7" t="s">
+        <v>368</v>
       </c>
       <c r="S50" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="51" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
         <v>49</v>
       </c>
-      <c r="P51" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q51" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="R51" s="6" t="s">
-        <v>118</v>
+      <c r="P51" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>44</v>
+      </c>
+      <c r="R51" s="7" t="s">
+        <v>369</v>
       </c>
       <c r="S51" s="7" t="s">
-        <v>118</v>
+        <v>369</v>
       </c>
     </row>
     <row r="52" spans="4:19" x14ac:dyDescent="0.25">
@@ -2912,12 +2990,12 @@
         <v>50</v>
       </c>
       <c r="P52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q52" t="s">
-        <v>44</v>
-      </c>
-      <c r="R52" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="R52" s="7" t="s">
         <v>371</v>
       </c>
       <c r="S52" s="7" t="s">
@@ -2929,12 +3007,12 @@
         <v>51</v>
       </c>
       <c r="P53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q53" t="s">
-        <v>45</v>
-      </c>
-      <c r="R53" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="R53" s="7" t="s">
         <v>372</v>
       </c>
       <c r="S53" s="7" t="s">
@@ -2952,12 +3030,12 @@
         <v>211</v>
       </c>
       <c r="P54" t="s">
-        <v>46</v>
+        <v>206</v>
       </c>
       <c r="Q54" t="s">
         <v>46</v>
       </c>
-      <c r="R54" s="6" t="s">
+      <c r="R54" s="7" t="s">
         <v>373</v>
       </c>
       <c r="S54" s="7" t="s">
@@ -2972,16 +3050,16 @@
         <v>212</v>
       </c>
       <c r="P55" t="s">
-        <v>206</v>
+        <v>47</v>
       </c>
       <c r="Q55" t="s">
-        <v>46</v>
-      </c>
-      <c r="R55" s="6" t="s">
-        <v>375</v>
+        <v>47</v>
+      </c>
+      <c r="R55" s="7" t="s">
+        <v>374</v>
       </c>
       <c r="S55" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="56" spans="4:19" x14ac:dyDescent="0.25">
@@ -2989,16 +3067,16 @@
         <v>54</v>
       </c>
       <c r="P56" t="s">
-        <v>47</v>
+        <v>207</v>
       </c>
       <c r="Q56" t="s">
         <v>47</v>
       </c>
-      <c r="R56" s="6" t="s">
-        <v>376</v>
+      <c r="R56" s="7" t="s">
+        <v>375</v>
       </c>
       <c r="S56" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="57" spans="4:19" x14ac:dyDescent="0.25">
@@ -3009,16 +3087,16 @@
         <v>309</v>
       </c>
       <c r="P57" t="s">
-        <v>207</v>
+        <v>48</v>
       </c>
       <c r="Q57" t="s">
-        <v>47</v>
-      </c>
-      <c r="R57" s="6" t="s">
-        <v>377</v>
+        <v>48</v>
+      </c>
+      <c r="R57" s="7" t="s">
+        <v>376</v>
       </c>
       <c r="S57" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="58" spans="4:19" x14ac:dyDescent="0.25">
@@ -3047,16 +3125,16 @@
         <v>219</v>
       </c>
       <c r="P58" t="s">
-        <v>48</v>
+        <v>208</v>
       </c>
       <c r="Q58" t="s">
         <v>48</v>
       </c>
-      <c r="R58" s="6" t="s">
-        <v>378</v>
+      <c r="R58" s="7" t="s">
+        <v>377</v>
       </c>
       <c r="S58" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="59" spans="4:19" x14ac:dyDescent="0.25">
@@ -3073,16 +3151,16 @@
         <v>210</v>
       </c>
       <c r="P59" t="s">
-        <v>208</v>
+        <v>396</v>
       </c>
       <c r="Q59" t="s">
-        <v>48</v>
-      </c>
-      <c r="R59" s="6" t="s">
-        <v>379</v>
+        <v>144</v>
+      </c>
+      <c r="R59" s="7" t="s">
+        <v>378</v>
       </c>
       <c r="S59" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="60" spans="4:19" x14ac:dyDescent="0.25">
@@ -3090,16 +3168,16 @@
         <v>58</v>
       </c>
       <c r="P60" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q60" t="s">
-        <v>49</v>
-      </c>
-      <c r="R60" s="6" t="s">
-        <v>380</v>
+        <v>50</v>
+      </c>
+      <c r="R60" s="7" t="s">
+        <v>381</v>
       </c>
       <c r="S60" s="7" t="s">
-        <v>380</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="4:19" x14ac:dyDescent="0.25">
@@ -3110,16 +3188,16 @@
         <v>222</v>
       </c>
       <c r="P61" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q61" t="s">
-        <v>50</v>
-      </c>
-      <c r="R61" s="6" t="s">
-        <v>381</v>
+        <v>51</v>
+      </c>
+      <c r="R61" s="7" t="s">
+        <v>382</v>
       </c>
       <c r="S61" s="7" t="s">
-        <v>381</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="4:19" x14ac:dyDescent="0.25">
@@ -3136,16 +3214,16 @@
         <v>225</v>
       </c>
       <c r="P62" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q62" t="s">
-        <v>51</v>
-      </c>
-      <c r="R62" s="6" t="s">
-        <v>382</v>
+        <v>52</v>
+      </c>
+      <c r="R62" s="7" t="s">
+        <v>394</v>
       </c>
       <c r="S62" s="7" t="s">
-        <v>382</v>
+        <v>350</v>
       </c>
     </row>
     <row r="63" spans="4:19" x14ac:dyDescent="0.25">
@@ -3159,10 +3237,16 @@
         <v>225</v>
       </c>
       <c r="P63" t="s">
-        <v>52</v>
+        <v>211</v>
       </c>
       <c r="Q63" t="s">
         <v>52</v>
+      </c>
+      <c r="R63" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="S63" s="7" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="64" spans="4:19" x14ac:dyDescent="0.25">
@@ -3170,46 +3254,70 @@
         <v>62</v>
       </c>
       <c r="P64" t="s">
-        <v>211</v>
+        <v>53</v>
       </c>
       <c r="Q64" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="65" spans="4:17" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="R64" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="S64" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
         <v>63</v>
       </c>
       <c r="P65" t="s">
-        <v>53</v>
+        <v>212</v>
       </c>
       <c r="Q65" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="66" spans="4:17" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="R65" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="S65" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
         <v>64</v>
       </c>
       <c r="P66" t="s">
-        <v>212</v>
+        <v>54</v>
       </c>
       <c r="Q66" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="67" spans="4:17" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="R66" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="S66" s="7" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="67" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
         <v>65</v>
       </c>
-      <c r="P67" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="68" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="P67" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q67" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R67" t="s">
+        <v>138</v>
+      </c>
+      <c r="S67" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="68" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
         <v>66</v>
       </c>
@@ -3222,47 +3330,71 @@
       <c r="G68" t="s">
         <v>229</v>
       </c>
-      <c r="P68" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q68" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="69" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="P68" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>56</v>
+      </c>
+      <c r="R68" t="s">
+        <v>143</v>
+      </c>
+      <c r="S68" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
         <v>67</v>
       </c>
       <c r="P69" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q69" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="70" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="R69" t="s">
+        <v>387</v>
+      </c>
+      <c r="S69" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
         <v>68</v>
       </c>
       <c r="P70" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q70" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="71" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="R70" t="s">
+        <v>388</v>
+      </c>
+      <c r="S70" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="71" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
         <v>69</v>
       </c>
       <c r="P71" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q71" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="72" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="R71">
+        <v>5081</v>
+      </c>
+      <c r="S71" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="72" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D72" s="3" t="s">
         <v>70</v>
       </c>
@@ -3273,13 +3405,19 @@
         <v>231</v>
       </c>
       <c r="P72" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q72" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="73" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="R72" t="s">
+        <v>349</v>
+      </c>
+      <c r="S72" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="73" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
         <v>71</v>
       </c>
@@ -3287,13 +3425,13 @@
         <v>232</v>
       </c>
       <c r="P73" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q73" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="74" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
         <v>72</v>
       </c>
@@ -3301,13 +3439,13 @@
         <v>290</v>
       </c>
       <c r="P74" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q74" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="75" spans="4:17" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="75" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
         <v>73</v>
       </c>
@@ -3315,13 +3453,13 @@
         <v>232</v>
       </c>
       <c r="P75" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q75" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="76" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
         <v>74</v>
       </c>
@@ -3335,24 +3473,24 @@
         <v>235</v>
       </c>
       <c r="P76" t="s">
-        <v>221</v>
+        <v>58</v>
       </c>
       <c r="Q76" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="77" spans="4:17" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="77" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
         <v>75</v>
       </c>
       <c r="P77" t="s">
-        <v>58</v>
+        <v>323</v>
       </c>
       <c r="Q77" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="78" spans="4:17" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="78" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
         <v>76</v>
       </c>
@@ -3360,27 +3498,27 @@
         <v>236</v>
       </c>
       <c r="P78" t="s">
-        <v>323</v>
+        <v>228</v>
       </c>
       <c r="Q78" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="79" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
         <v>77</v>
       </c>
       <c r="I79" t="s">
         <v>184</v>
       </c>
-      <c r="P79" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="80" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="P79" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q79" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="80" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
         <v>78</v>
       </c>
@@ -3402,11 +3540,11 @@
       <c r="L80" t="s">
         <v>272</v>
       </c>
-      <c r="P80" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q80" s="3" t="s">
-        <v>104</v>
+      <c r="P80" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="81" spans="4:17" x14ac:dyDescent="0.25">
@@ -3417,10 +3555,10 @@
         <v>242</v>
       </c>
       <c r="P81" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q81" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="82" spans="4:17" x14ac:dyDescent="0.25">
@@ -3428,10 +3566,10 @@
         <v>80</v>
       </c>
       <c r="P82" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q82" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="83" spans="4:17" x14ac:dyDescent="0.25">
@@ -3439,10 +3577,10 @@
         <v>81</v>
       </c>
       <c r="P83" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q83" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="84" spans="4:17" x14ac:dyDescent="0.25">
@@ -3450,10 +3588,10 @@
         <v>82</v>
       </c>
       <c r="P84" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q84" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="85" spans="4:17" x14ac:dyDescent="0.25">
@@ -3464,10 +3602,10 @@
         <v>184</v>
       </c>
       <c r="P85" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q85" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="86" spans="4:17" x14ac:dyDescent="0.25">
@@ -3481,10 +3619,10 @@
         <v>243</v>
       </c>
       <c r="P86" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q86" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="87" spans="4:17" x14ac:dyDescent="0.25">
@@ -3495,10 +3633,10 @@
         <v>245</v>
       </c>
       <c r="P87" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q87" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="88" spans="4:17" x14ac:dyDescent="0.25">
@@ -3508,11 +3646,11 @@
       <c r="I88" t="s">
         <v>184</v>
       </c>
-      <c r="P88" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>69</v>
+      <c r="P88" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q88" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="89" spans="4:17" x14ac:dyDescent="0.25">
@@ -3523,7 +3661,7 @@
         <v>246</v>
       </c>
       <c r="P89" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>70</v>
@@ -3533,11 +3671,11 @@
       <c r="D90" t="s">
         <v>88</v>
       </c>
-      <c r="P90" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q90" s="3" t="s">
-        <v>70</v>
+      <c r="P90" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="91" spans="4:17" x14ac:dyDescent="0.25">
@@ -3545,10 +3683,10 @@
         <v>89</v>
       </c>
       <c r="P91" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q91" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="92" spans="4:17" x14ac:dyDescent="0.25">
@@ -3556,10 +3694,10 @@
         <v>90</v>
       </c>
       <c r="P92" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q92" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="93" spans="4:17" x14ac:dyDescent="0.25">
@@ -3570,7 +3708,7 @@
         <v>247</v>
       </c>
       <c r="P93" t="s">
-        <v>74</v>
+        <v>233</v>
       </c>
       <c r="Q93" t="s">
         <v>74</v>
@@ -3581,7 +3719,7 @@
         <v>92</v>
       </c>
       <c r="P94" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q94" t="s">
         <v>74</v>
@@ -3592,7 +3730,7 @@
         <v>93</v>
       </c>
       <c r="P95" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q95" t="s">
         <v>74</v>
@@ -3624,10 +3762,10 @@
         <v>310</v>
       </c>
       <c r="P96" t="s">
-        <v>235</v>
+        <v>75</v>
       </c>
       <c r="Q96" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="97" spans="4:17" x14ac:dyDescent="0.25">
@@ -3638,10 +3776,10 @@
         <v>252</v>
       </c>
       <c r="P97" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q97" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="98" spans="4:17" x14ac:dyDescent="0.25">
@@ -3652,10 +3790,10 @@
         <v>255</v>
       </c>
       <c r="P98" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q98" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="99" spans="4:17" x14ac:dyDescent="0.25">
@@ -3663,10 +3801,10 @@
         <v>97</v>
       </c>
       <c r="P99" t="s">
-        <v>77</v>
+        <v>237</v>
       </c>
       <c r="Q99" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="100" spans="4:17" x14ac:dyDescent="0.25">
@@ -3680,7 +3818,7 @@
         <v>257</v>
       </c>
       <c r="P100" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q100" t="s">
         <v>78</v>
@@ -3706,10 +3844,10 @@
         <v>262</v>
       </c>
       <c r="P101" t="s">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c r="Q101" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="102" spans="4:17" x14ac:dyDescent="0.25">
@@ -3717,10 +3855,10 @@
         <v>100</v>
       </c>
       <c r="P102" t="s">
-        <v>79</v>
+        <v>241</v>
       </c>
       <c r="Q102" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="103" spans="4:17" x14ac:dyDescent="0.25">
@@ -3731,10 +3869,10 @@
         <v>263</v>
       </c>
       <c r="P103" t="s">
-        <v>241</v>
+        <v>80</v>
       </c>
       <c r="Q103" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="104" spans="4:17" x14ac:dyDescent="0.25">
@@ -3748,10 +3886,10 @@
         <v>264</v>
       </c>
       <c r="P104" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q104" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="105" spans="4:17" x14ac:dyDescent="0.25">
@@ -3765,10 +3903,10 @@
         <v>267</v>
       </c>
       <c r="P105" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q105" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="106" spans="4:17" x14ac:dyDescent="0.25">
@@ -3785,10 +3923,10 @@
         <v>312</v>
       </c>
       <c r="P106" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q106" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="107" spans="4:17" x14ac:dyDescent="0.25">
@@ -3796,10 +3934,10 @@
         <v>105</v>
       </c>
       <c r="P107" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q107" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="108" spans="4:17" x14ac:dyDescent="0.25">
@@ -3807,7 +3945,7 @@
         <v>106</v>
       </c>
       <c r="P108" t="s">
-        <v>84</v>
+        <v>244</v>
       </c>
       <c r="Q108" t="s">
         <v>84</v>
@@ -3821,10 +3959,10 @@
         <v>268</v>
       </c>
       <c r="P109" t="s">
-        <v>244</v>
+        <v>85</v>
       </c>
       <c r="Q109" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="110" spans="4:17" x14ac:dyDescent="0.25">
@@ -3838,10 +3976,10 @@
         <v>269</v>
       </c>
       <c r="P110" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q110" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="111" spans="4:17" x14ac:dyDescent="0.25">
@@ -3849,10 +3987,10 @@
         <v>109</v>
       </c>
       <c r="P111" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q111" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="112" spans="4:17" x14ac:dyDescent="0.25">
@@ -3863,10 +4001,10 @@
         <v>270</v>
       </c>
       <c r="P112" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q112" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="113" spans="4:17" x14ac:dyDescent="0.25">
@@ -3877,10 +4015,10 @@
         <v>271</v>
       </c>
       <c r="P113" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q113" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="114" spans="4:17" x14ac:dyDescent="0.25">
@@ -3888,10 +4026,10 @@
         <v>112</v>
       </c>
       <c r="P114" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q114" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="115" spans="4:17" x14ac:dyDescent="0.25">
@@ -3899,10 +4037,10 @@
         <v>113</v>
       </c>
       <c r="P115" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q115" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="116" spans="4:17" x14ac:dyDescent="0.25">
@@ -3910,7 +4048,7 @@
         <v>114</v>
       </c>
       <c r="P116" t="s">
-        <v>91</v>
+        <v>247</v>
       </c>
       <c r="Q116" t="s">
         <v>91</v>
@@ -3924,10 +4062,10 @@
         <v>273</v>
       </c>
       <c r="P117" t="s">
-        <v>247</v>
+        <v>92</v>
       </c>
       <c r="Q117" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="118" spans="4:17" x14ac:dyDescent="0.25">
@@ -3962,10 +4100,10 @@
         <v>282</v>
       </c>
       <c r="P118" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q118" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="119" spans="4:17" x14ac:dyDescent="0.25">
@@ -3979,10 +4117,10 @@
         <v>184</v>
       </c>
       <c r="P119" t="s">
-        <v>93</v>
+        <v>252</v>
       </c>
       <c r="Q119" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="120" spans="4:17" x14ac:dyDescent="0.25">
@@ -3996,10 +4134,10 @@
         <v>287</v>
       </c>
       <c r="P120" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q120" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="121" spans="4:17" x14ac:dyDescent="0.25">
@@ -4007,7 +4145,7 @@
         <v>119</v>
       </c>
       <c r="P121" t="s">
-        <v>255</v>
+        <v>96</v>
       </c>
       <c r="Q121" t="s">
         <v>96</v>
@@ -4018,10 +4156,10 @@
         <v>120</v>
       </c>
       <c r="P122" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q122" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="123" spans="4:17" x14ac:dyDescent="0.25">
@@ -4032,10 +4170,10 @@
         <v>288</v>
       </c>
       <c r="P123" t="s">
-        <v>97</v>
+        <v>256</v>
       </c>
       <c r="Q123" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="124" spans="4:17" x14ac:dyDescent="0.25">
@@ -4045,11 +4183,11 @@
       <c r="I124" t="s">
         <v>289</v>
       </c>
-      <c r="P124" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q124" t="s">
-        <v>98</v>
+      <c r="P124" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q124" s="7" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="125" spans="4:17" x14ac:dyDescent="0.25">
@@ -4063,7 +4201,7 @@
         <v>291</v>
       </c>
       <c r="P125" t="s">
-        <v>99</v>
+        <v>258</v>
       </c>
       <c r="Q125" t="s">
         <v>99</v>
@@ -4077,7 +4215,7 @@
         <v>294</v>
       </c>
       <c r="P126" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q126" t="s">
         <v>99</v>
@@ -4091,10 +4229,10 @@
         <v>295</v>
       </c>
       <c r="P127" t="s">
-        <v>259</v>
+        <v>100</v>
       </c>
       <c r="Q127" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="128" spans="4:17" x14ac:dyDescent="0.25">
@@ -4108,10 +4246,10 @@
         <v>292</v>
       </c>
       <c r="P128" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="Q128" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="129" spans="4:17" x14ac:dyDescent="0.25">
@@ -4119,10 +4257,10 @@
         <v>127</v>
       </c>
       <c r="P129" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q129" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="130" spans="4:17" x14ac:dyDescent="0.25">
@@ -4133,10 +4271,10 @@
         <v>294</v>
       </c>
       <c r="P130" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q130" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="131" spans="4:17" x14ac:dyDescent="0.25">
@@ -4144,7 +4282,7 @@
         <v>129</v>
       </c>
       <c r="P131" t="s">
-        <v>108</v>
+        <v>269</v>
       </c>
       <c r="Q131" t="s">
         <v>108</v>
@@ -4155,10 +4293,10 @@
         <v>130</v>
       </c>
       <c r="P132" t="s">
-        <v>269</v>
+        <v>109</v>
       </c>
       <c r="Q132" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="133" spans="4:17" x14ac:dyDescent="0.25">
@@ -4169,10 +4307,10 @@
         <v>298</v>
       </c>
       <c r="P133" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q133" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="134" spans="4:17" x14ac:dyDescent="0.25">
@@ -4183,10 +4321,10 @@
         <v>299</v>
       </c>
       <c r="P134" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q134" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="135" spans="4:17" x14ac:dyDescent="0.25">
@@ -4194,10 +4332,10 @@
         <v>133</v>
       </c>
       <c r="P135" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q135" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="136" spans="4:17" x14ac:dyDescent="0.25">
@@ -4208,10 +4346,10 @@
         <v>300</v>
       </c>
       <c r="P136" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q136" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="137" spans="4:17" x14ac:dyDescent="0.25">
@@ -4219,10 +4357,10 @@
         <v>135</v>
       </c>
       <c r="P137" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q137" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="138" spans="4:17" x14ac:dyDescent="0.25">
@@ -4230,10 +4368,10 @@
         <v>136</v>
       </c>
       <c r="P138" t="s">
-        <v>115</v>
+        <v>283</v>
       </c>
       <c r="Q138" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="139" spans="4:17" x14ac:dyDescent="0.25">
@@ -4247,10 +4385,10 @@
         <v>293</v>
       </c>
       <c r="P139" t="s">
-        <v>283</v>
+        <v>118</v>
       </c>
       <c r="Q139" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="140" spans="4:17" x14ac:dyDescent="0.25">
@@ -4261,7 +4399,7 @@
         <v>301</v>
       </c>
       <c r="P140" t="s">
-        <v>118</v>
+        <v>286</v>
       </c>
       <c r="Q140" t="s">
         <v>118</v>
@@ -4275,7 +4413,7 @@
         <v>302</v>
       </c>
       <c r="P141" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q141" t="s">
         <v>118</v>
@@ -4292,10 +4430,10 @@
         <v>304</v>
       </c>
       <c r="P142" t="s">
-        <v>287</v>
+        <v>119</v>
       </c>
       <c r="Q142" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="143" spans="4:17" x14ac:dyDescent="0.25">
@@ -4303,10 +4441,10 @@
         <v>141</v>
       </c>
       <c r="P143" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q143" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="144" spans="4:17" x14ac:dyDescent="0.25">
@@ -4317,10 +4455,10 @@
         <v>232</v>
       </c>
       <c r="P144" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q144" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="145" spans="4:17" x14ac:dyDescent="0.25">
@@ -4328,10 +4466,10 @@
         <v>143</v>
       </c>
       <c r="P145" t="s">
-        <v>122</v>
+        <v>284</v>
       </c>
       <c r="Q145" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="146" spans="4:17" x14ac:dyDescent="0.25">
@@ -4348,7 +4486,7 @@
         <v>306</v>
       </c>
       <c r="P146" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="Q146" t="s">
         <v>123</v>
@@ -4362,10 +4500,10 @@
         <v>308</v>
       </c>
       <c r="P147" t="s">
-        <v>291</v>
+        <v>124</v>
       </c>
       <c r="Q147" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="148" spans="4:17" x14ac:dyDescent="0.25">
@@ -4373,23 +4511,23 @@
         <v>146</v>
       </c>
       <c r="P148" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q148" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="149" spans="4:17" x14ac:dyDescent="0.25">
       <c r="P149" t="s">
-        <v>125</v>
+        <v>296</v>
       </c>
       <c r="Q149" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="150" spans="4:17" x14ac:dyDescent="0.25">
       <c r="P150" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="Q150" t="s">
         <v>126</v>
@@ -4397,79 +4535,79 @@
     </row>
     <row r="151" spans="4:17" x14ac:dyDescent="0.25">
       <c r="P151" t="s">
-        <v>292</v>
+        <v>127</v>
       </c>
       <c r="Q151" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="152" spans="4:17" x14ac:dyDescent="0.25">
       <c r="P152" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q152" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="153" spans="4:17" x14ac:dyDescent="0.25">
       <c r="P153" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q153" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="154" spans="4:17" x14ac:dyDescent="0.25">
       <c r="P154" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q154" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="155" spans="4:17" x14ac:dyDescent="0.25">
       <c r="P155" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q155" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="156" spans="4:17" x14ac:dyDescent="0.25">
       <c r="P156" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q156" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="157" spans="4:17" x14ac:dyDescent="0.25">
       <c r="P157" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q157" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="158" spans="4:17" x14ac:dyDescent="0.25">
       <c r="P158" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q158" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="159" spans="4:17" x14ac:dyDescent="0.25">
       <c r="P159" t="s">
-        <v>136</v>
+        <v>285</v>
       </c>
       <c r="Q159" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="160" spans="4:17" x14ac:dyDescent="0.25">
       <c r="P160" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="Q160" t="s">
         <v>137</v>
@@ -4477,15 +4615,15 @@
     </row>
     <row r="161" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P161" t="s">
-        <v>293</v>
+        <v>138</v>
       </c>
       <c r="Q161" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="162" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P162" t="s">
-        <v>138</v>
+        <v>301</v>
       </c>
       <c r="Q162" t="s">
         <v>138</v>
@@ -4493,47 +4631,47 @@
     </row>
     <row r="163" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P163" t="s">
-        <v>301</v>
+        <v>140</v>
       </c>
       <c r="Q163" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="164" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P164" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q164" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="165" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P165" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q165" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="166" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P166" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q166" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="167" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P167" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q167" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="168" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P168" t="s">
-        <v>144</v>
+        <v>305</v>
       </c>
       <c r="Q168" t="s">
         <v>144</v>
@@ -4541,15 +4679,15 @@
     </row>
     <row r="169" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P169" t="s">
-        <v>305</v>
+        <v>145</v>
       </c>
       <c r="Q169" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="170" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P170" t="s">
-        <v>145</v>
+        <v>308</v>
       </c>
       <c r="Q170" t="s">
         <v>145</v>
@@ -4557,23 +4695,23 @@
     </row>
     <row r="171" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P171" t="s">
-        <v>308</v>
+        <v>146</v>
       </c>
       <c r="Q171" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="172" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P172" t="s">
-        <v>146</v>
+        <v>5</v>
       </c>
       <c r="Q172" t="s">
-        <v>146</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P173" t="s">
-        <v>5</v>
+        <v>151</v>
       </c>
       <c r="Q173" t="s">
         <v>5</v>
@@ -4581,7 +4719,7 @@
     </row>
     <row r="174" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P174" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q174" t="s">
         <v>5</v>
@@ -4589,63 +4727,63 @@
     </row>
     <row r="175" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P175" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q175" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="176" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P176" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q176" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="177" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P177" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="Q177" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="178" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P178" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q178" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="179" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P179" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="Q179" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="180" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P180" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q180" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="181" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P181" t="s">
-        <v>209</v>
+        <v>56</v>
       </c>
       <c r="Q181" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="182" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P182" t="s">
-        <v>56</v>
+        <v>218</v>
       </c>
       <c r="Q182" t="s">
         <v>56</v>
@@ -4653,34 +4791,50 @@
     </row>
     <row r="183" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P183" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="Q183" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="184" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P184" t="s">
-        <v>210</v>
+        <v>266</v>
       </c>
       <c r="Q184" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
     </row>
     <row r="185" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P185" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q185" t="s">
-        <v>103</v>
+      <c r="P185" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q185" s="7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="186" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P186" t="s">
-        <v>103</v>
+      <c r="P186" s="7" t="s">
+        <v>389</v>
       </c>
       <c r="Q186" t="s">
-        <v>103</v>
+        <v>342</v>
+      </c>
+    </row>
+    <row r="187" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P187" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q187" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="188" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P188" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q188" t="s">
+        <v>342</v>
       </c>
     </row>
   </sheetData>

--- a/SystemList.xlsx
+++ b/SystemList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Desktop\MITRE\NLTK Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C49F337-184F-4D5A-8A30-6EDFA7B2989A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE234C90-6D4A-4AEE-96AF-965F98FDAFE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{39D30E7D-5D62-4050-AF7B-14405E14E2D2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="401">
   <si>
     <t>Final Mapped System</t>
   </si>
@@ -1614,10 +1614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE95750E-80EC-4200-A435-5C9AC23FAF1E}">
-  <dimension ref="D1:W188"/>
+  <dimension ref="D1:W187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="AB28" sqref="AB28"/>
+    <sheetView tabSelected="1" topLeftCell="B35" workbookViewId="0">
+      <selection activeCell="S63" sqref="S63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3246,7 +3246,7 @@
         <v>383</v>
       </c>
       <c r="S63" s="7" t="s">
-        <v>107</v>
+        <v>337</v>
       </c>
     </row>
     <row r="64" spans="4:19" x14ac:dyDescent="0.25">
@@ -4614,226 +4614,218 @@
       </c>
     </row>
     <row r="161" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P161" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q161" t="s">
-        <v>138</v>
+      <c r="P161" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q161" s="7" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="162" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P162" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q162" t="s">
-        <v>138</v>
+      <c r="P162" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q162" s="7" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="163" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P163" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q163" t="s">
-        <v>140</v>
+      <c r="P163" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q163" s="7" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="164" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P164" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q164" t="s">
-        <v>141</v>
+      <c r="P164" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q164" s="7" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="165" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P165" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q165" t="s">
-        <v>142</v>
+      <c r="P165" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q165" s="7" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="166" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P166" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q166" t="s">
-        <v>143</v>
+      <c r="P166" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q166" s="7" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="167" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P167" t="s">
+      <c r="P167" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q167" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="Q167" t="s">
-        <v>144</v>
-      </c>
     </row>
     <row r="168" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P168" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q168" t="s">
-        <v>144</v>
+      <c r="P168" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q168" s="7" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="169" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P169" t="s">
+      <c r="P169" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q169" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="Q169" t="s">
-        <v>145</v>
-      </c>
     </row>
     <row r="170" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P170" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q170" t="s">
-        <v>145</v>
+      <c r="P170" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q170" s="7" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="171" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P171" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q171" t="s">
-        <v>146</v>
+      <c r="P171" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q171" s="7" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="172" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P172" t="s">
+      <c r="P172" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q172" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="Q172" t="s">
+    </row>
+    <row r="173" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P173" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q173" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P173" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q173" t="s">
-        <v>5</v>
-      </c>
-    </row>
     <row r="174" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P174" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q174" t="s">
-        <v>5</v>
+      <c r="P174" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q174" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="175" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P175" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q175" t="s">
-        <v>7</v>
+      <c r="P175" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q175" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="176" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P176" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q176" t="s">
-        <v>12</v>
+      <c r="P176" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q176" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="177" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P177" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q177" t="s">
-        <v>36</v>
+      <c r="P177" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q177" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="178" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P178" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q178" t="s">
-        <v>38</v>
+      <c r="P178" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q178" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="179" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P179" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q179" t="s">
-        <v>43</v>
+      <c r="P179" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q179" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="180" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P180" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q180" t="s">
-        <v>52</v>
+      <c r="P180" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q180" s="7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="181" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P181" t="s">
+      <c r="P181" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q181" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="Q181" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="182" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P182" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q182" t="s">
-        <v>56</v>
+      <c r="P182" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q182" s="7" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="183" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P183" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q183" t="s">
-        <v>57</v>
+      <c r="P183" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q183" s="7" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="184" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P184" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q184" t="s">
-        <v>103</v>
+      <c r="P184" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q184" s="7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="185" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P185" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="Q185" s="7" t="s">
-        <v>78</v>
+        <v>342</v>
       </c>
     </row>
     <row r="186" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P186" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="Q186" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q186" s="7" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="187" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P187" t="s">
-        <v>391</v>
-      </c>
-      <c r="Q187" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="188" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P188" t="s">
+      <c r="P187" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="Q188" t="s">
+      <c r="Q187" s="7" t="s">
         <v>342</v>
       </c>
     </row>
